--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4483425.049461428</v>
+        <v>4481544.869691101</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>589311.0452826261</v>
+        <v>134060.3852767117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>248.224143665341</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>126.7632886126198</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>65.2453208166456</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>253.9620394059549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>55.90301252244944</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>356.0499371767997</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>138.1056888072242</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051996</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>80.83119524461029</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>183.4653217847135</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>64.02545868683379</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.41761368552075</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.2000247838403</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>122.9173756461931</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>25.64994637835898</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552143</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>75.99557917667421</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>23.13573238083927</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552143</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808134</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>210.5069097326778</v>
@@ -2770,7 +2770,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
@@ -2779,7 +2779,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552031</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808134</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
@@ -3007,7 +3007,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981166</v>
+        <v>56.38473483264016</v>
       </c>
       <c r="W31" t="n">
         <v>275.4823470108796</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169287</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.624152959604</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1133.624152959604</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.624152959604</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1133.624152959604</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>722.6382481699968</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>304.6744400681837</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4343,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1520.223993023726</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,31 +4428,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887234</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887234</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>544.7566551326393</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>671.6612947898188</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.591755944065</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.629239003653</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.363540396903</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>824.5752877986586</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>413.589383009051</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1754.189055519933</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1380.723297258854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5081,7 +5081,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>227.3238722865109</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2209420433995</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M12" t="n">
-        <v>1609.589088435861</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245387</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245387</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>178.8647634245387</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>809.2953582963258</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>581.3058073983085</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>360.5132282547784</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5300,25 +5300,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2198.113937389054</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>266.153274388193</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>223.2322278932325</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>348.5897879510699</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>578.5528938194191</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5364799014543</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>230.7524700298216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
         <v>281.6456777937157</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449755</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953627</v>
+        <v>1054.13514649785</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146763</v>
+        <v>775.8701495171631</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729331</v>
+        <v>559.0327716754199</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729331</v>
+        <v>559.0327716754199</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>309.0622245438788</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>309.0622245438788</v>
       </c>
       <c r="M21" t="n">
-        <v>334.288126757867</v>
+        <v>629.3975440735805</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>357.1138312011071</v>
+        <v>372.9424783424665</v>
       </c>
       <c r="C22" t="n">
-        <v>357.1138312011071</v>
+        <v>372.9424783424665</v>
       </c>
       <c r="D22" t="n">
-        <v>357.1138312011071</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="E22" t="n">
-        <v>232.954865901922</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
         <v>822.7849551969364</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1586.358229057537</v>
+        <v>1460.526261929819</v>
       </c>
       <c r="T22" t="n">
-        <v>1373.724986903317</v>
+        <v>1247.893019775599</v>
       </c>
       <c r="U22" t="n">
-        <v>1095.748521173149</v>
+        <v>969.9165540454313</v>
       </c>
       <c r="V22" t="n">
-        <v>852.2162060235366</v>
+        <v>969.9165540454313</v>
       </c>
       <c r="W22" t="n">
-        <v>573.9512090428502</v>
+        <v>969.9165540454313</v>
       </c>
       <c r="X22" t="n">
-        <v>357.1138312011071</v>
+        <v>753.0791762036881</v>
       </c>
       <c r="Y22" t="n">
-        <v>357.1138312011071</v>
+        <v>543.4387701164321</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6002,13 +6002,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729337</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729337</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729337</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729337</v>
+        <v>232.9548659019221</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6172,25 +6172,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>906.980684144976</v>
+        <v>1108.193938585573</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953632</v>
+        <v>1108.193938585573</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146768</v>
+        <v>829.9289416048869</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729337</v>
+        <v>613.0915637631437</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729337</v>
+        <v>403.4511576758877</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>118.6619711928861</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>118.6619711928861</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>887.0301175853476</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729337</v>
+        <v>120.5865181075982</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729337</v>
+        <v>120.5865181075982</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729337</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,19 +6382,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O28" t="n">
         <v>1349.06453185479</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875144</v>
+        <v>1273.802056521417</v>
       </c>
       <c r="U28" t="n">
-        <v>906.980684144976</v>
+        <v>995.8255907912494</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953632</v>
+        <v>995.8255907912494</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146768</v>
+        <v>717.560593810563</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729337</v>
+        <v>500.7232159688198</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729337</v>
+        <v>291.0828098815638</v>
       </c>
     </row>
     <row r="29">
@@ -6440,67 +6440,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>674.4285624571609</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M30" t="n">
-        <v>674.4285624571609</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2045.433897687154</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729329</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729329</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>120.5300287366501</v>
@@ -6625,46 +6625,46 @@
         <v>281.6456777937159</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N31" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449753</v>
+        <v>807.0577537630757</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953626</v>
+        <v>750.1034761543482</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146761</v>
+        <v>471.8384791736618</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729329</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729329</v>
+        <v>255.0011013319186</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,28 +6719,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254959</v>
@@ -6874,34 +6874,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,28 +6923,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.32563221405</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.809122337732</v>
+        <v>2066.281124137609</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>661.6060969157201</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,13 +7394,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7494,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649693</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>254.9038403174317</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>159.5029336537532</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>278.2947324102851</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>212.2017739516806</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>213.598511846482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.60276740195889</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0576765518775</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>161.6841967022034</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.37371517070514</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>5.374796908660663</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208578</v>
@@ -23905,10 +23905,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>12.47593567466463</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>161.2302122795329</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169836</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>199.2011218961921</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>114.4390893116616</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169836</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376661</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>137.5748216925009</v>
@@ -24847,16 +24847,16 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169951</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856053</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>184.7122571654764</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.042012364330506e-14</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591281.5128888319</v>
+        <v>591281.5128888318</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888318</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591281.512888832</v>
+        <v>591281.5128888319</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
@@ -26320,40 +26320,40 @@
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
       <c r="G2" t="n">
-        <v>788375.3505184435</v>
+        <v>788375.3505184437</v>
       </c>
       <c r="H2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184437</v>
       </c>
       <c r="I2" t="n">
         <v>788375.3505184436</v>
       </c>
       <c r="J2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184436</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="N2" t="n">
         <v>821041.7698642847</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>8832.521060569126</v>
       </c>
       <c r="H3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371224</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758334</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758477</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415188</v>
+        <v>4420.718193415135</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415203</v>
+        <v>4420.718193415135</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415185</v>
+        <v>4420.718193415172</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415198</v>
+        <v>4420.718193415196</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415185</v>
+        <v>4420.718193415183</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.5809318964</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
@@ -26494,19 +26494,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9155.673405709851</v>
+        <v>9155.673405710084</v>
       </c>
       <c r="C6" t="n">
         <v>599123.5526202547</v>
@@ -26528,40 +26528,40 @@
         <v>599123.5526202548</v>
       </c>
       <c r="E6" t="n">
-        <v>164122.9633592293</v>
+        <v>164025.5042332566</v>
       </c>
       <c r="F6" t="n">
-        <v>689282.9998361254</v>
+        <v>689185.5407101534</v>
       </c>
       <c r="G6" t="n">
-        <v>682206.6087994414</v>
+        <v>682124.9427510771</v>
       </c>
       <c r="H6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.4638116462</v>
       </c>
       <c r="I6" t="n">
-        <v>691039.1298600106</v>
+        <v>690957.463811646</v>
       </c>
       <c r="J6" t="n">
-        <v>514615.9106674175</v>
+        <v>514534.2446190529</v>
       </c>
       <c r="K6" t="n">
-        <v>691039.1298600103</v>
+        <v>690957.463811646</v>
       </c>
       <c r="L6" t="n">
-        <v>645614.5710086502</v>
+        <v>645614.5710086504</v>
       </c>
       <c r="M6" t="n">
-        <v>565319.0678785257</v>
+        <v>565319.0678785252</v>
       </c>
       <c r="N6" t="n">
-        <v>700120.0831123627</v>
+        <v>700120.083112363</v>
       </c>
       <c r="O6" t="n">
         <v>700120.0831123628</v>
       </c>
       <c r="P6" t="n">
-        <v>700120.0831123628</v>
+        <v>700120.0831123627</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
         <v>11.04065132571144</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26923,10 +26923,10 @@
         <v>11.04065132571141</v>
       </c>
       <c r="H2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>11.04065132571141</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>69.33201015671796</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>75.69862909901613</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>19.90190336753807</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>316.6850492556161</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.2758992500987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>230.6199858141416</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>57.7342328439953</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>211.1352799101888</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529232</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31373,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,10 +31610,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>4.797192695341039</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>100.5826050876802</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>425.8974584957643</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,10 +32309,10 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>128.0346079251939</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,22 +32321,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,13 +32546,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>87.36118487450048</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,16 +32561,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32798,19 +32798,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>312.2752819045314</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,7 +33020,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33032,22 +33032,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>120.960087805292</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>90.6633340026462</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>312.2752819045316</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33737,28 +33737,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33977,25 +33977,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>43.17892664331856</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34214,16 +34214,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,13 +34232,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>131.4209907335606</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>351.8486799199653</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>773.8981207559846</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>120.9294329031015</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>127.288016598936</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>286.9827555116977</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
@@ -36051,7 +36051,7 @@
         <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.9849829127201</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.3175291313151</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>496.7636431301383</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36522,7 +36522,7 @@
         <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
         <v>284.3175291313151</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>21.66149467939418</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36762,7 +36762,7 @@
         <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>468.9607500655122</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>275.1516952282531</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.7636431301385</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>146.9530203269518</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>69.60552950723614</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>275.4648921669036</v>
       </c>
       <c r="M39" t="n">
-        <v>71.46447792446374</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>425.821533174629</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>416.1363719285944</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
